--- a/media/postprocessing/bpic2015_2_f2_summary.xlsx
+++ b/media/postprocessing/bpic2015_2_f2_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,11 @@
           <t>average_recall</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weighted_average_fscore</t>
@@ -550,6 +554,130 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>1,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bpic2015_2_f2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>weighted_edit_distance</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5000% 5000% 0%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0,910</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0,835</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0,910</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0,835</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bpic2015_2_f2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>edit_distance_lib</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0,564</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0,521</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0,615</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0,572</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0,528</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0,624</t>
         </is>
       </c>
     </row>

--- a/media/postprocessing/bpic2015_2_f2_summary.xlsx
+++ b/media/postprocessing/bpic2015_2_f2_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,7 @@
           <t>average_recall</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
+      <c r="I1" s="1" t="inlineStr"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weighted_average_fscore</t>
@@ -513,12 +509,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>weighted_edit_distance</t>
+          <t>edit_distance_lib</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5000% 0% 5000%</t>
+          <t>/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -554,130 +550,6 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>1,000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bpic2015_2_f2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>weighted_edit_distance</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5000% 5000% 0%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0,910</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0,835</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0,910</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0,835</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bpic2015_2_f2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>edit_distance_lib</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0,564</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0,521</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0,615</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0,572</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0,528</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0,624</t>
         </is>
       </c>
     </row>

--- a/media/postprocessing/bpic2015_2_f2_summary.xlsx
+++ b/media/postprocessing/bpic2015_2_f2_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,11 @@
           <t>average_recall</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weighted_average_fscore</t>
@@ -548,6 +552,254 @@
         </is>
       </c>
       <c r="L2" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bpic2015_2_f2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>edit_distance_lib</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0,819</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0,751</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0,900</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0,821</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0,753</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0,903</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bpic2015_2_f2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>weighted_edit_distance</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3300% 3300% 3300%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0,819</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0,751</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0,900</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0,821</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0,753</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0,903</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bpic2015_2_f2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>weighted_edit_distance</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3333% 3333% 3333%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0,910</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0,835</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0,910</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0,835</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bpic2015_2_f2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>weighted_edit_distance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5000% 5000% 0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0,910</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0,835</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0,910</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0,835</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>1,000</t>
         </is>
